--- a/newcmb46.xlsx
+++ b/newcmb46.xlsx
@@ -632,27 +632,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>16:00-20:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:00-20:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:00-20:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16:00-20:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Riposo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16:00-20:00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16:00-20:00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>16:00-20:00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30-20:30</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>16:15-20:15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>16:45-20:45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1059,27 +1059,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Riposo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:30-19:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>15:00-19:00</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15:30-19:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16:15-20:15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>15:00-19:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Riposo</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16:30-20:30</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>16:15-20:15</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>15:00-19:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Riposo</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:45-19:45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>Riposo</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1359,32 +1359,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>16:30-20:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16:15-20:15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>15:00-19:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Riposo</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15:45-19:45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>16:45-20:45</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1420,32 +1420,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>16:45-20:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15:00-19:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:00-19:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15:00-19:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Riposo</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16:45-20:45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>15:00-19:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15:00-19:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1486,17 +1486,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>16:45-20:45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Riposo</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1542,32 +1542,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Riposo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15:15-19:15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:00-19:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>16:45-20:45</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>15:00-19:00</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Riposo</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>15:00-19:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1664,14 +1664,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>16:30-20:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Riposo</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16:15-20:15</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>16:45-20:45</t>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15:30-19:30</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4333,27 +4333,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-19:30</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -4363,7 +4363,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>AUTO_15:30-19:30_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
@@ -4732,27 +4732,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -4762,7 +4762,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
@@ -5245,27 +5245,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -5275,29 +5275,29 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5339,17 +5339,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5359,27 +5359,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -5389,54 +5389,54 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -5446,24 +5446,24 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5473,27 +5473,27 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -5503,54 +5503,54 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:45-19:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -5560,24 +5560,24 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:45-19:45_240</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5587,27 +5587,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:45-19:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -5617,54 +5617,54 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>AUTO_15:45-19:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>15:45-19:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -5674,7 +5674,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_15:45-19:45_240</t>
         </is>
       </c>
     </row>
@@ -5701,27 +5701,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:45-19:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -5731,7 +5731,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>AUTO_15:45-19:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
@@ -5753,32 +5753,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -5788,7 +5788,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
@@ -5815,27 +5815,27 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -5845,7 +5845,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5909,47 +5909,47 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lo Casto Anna</t>
+          <t>Renna Barbara</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -5959,24 +5959,24 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Renna Barbara</t>
+          <t>Mancuso Vito</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5986,27 +5986,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -6016,54 +6016,54 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mancuso Vito</t>
+          <t>Lo Casto Anna</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -6073,24 +6073,24 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6100,27 +6100,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -6130,54 +6130,54 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -6187,7 +6187,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
@@ -6214,27 +6214,27 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -6244,54 +6244,54 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Inserra Maria Rita</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -6301,24 +6301,24 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6328,27 +6328,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -6358,54 +6358,54 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -6415,54 +6415,54 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -6472,54 +6472,54 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Inserra Maria Rita</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -6529,7 +6529,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
@@ -6551,32 +6551,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>16:30-20:30</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -6586,7 +6586,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>AUTO_16:30-20:30_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
@@ -6608,32 +6608,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:30-20:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -6643,7 +6643,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_16:30-20:30_240</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6722,32 +6722,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -6757,54 +6757,54 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>Ferranti Margherita</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -6814,54 +6814,54 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ferranti Margherita</t>
+          <t>Inserra Maria Rita</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:30-20:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -6871,54 +6871,54 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_16:30-20:30_240</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Inserra Maria Rita</t>
+          <t>Borsellino Antonino</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -6928,7 +6928,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_16:00-20:00_240</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7163,47 +7163,47 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Borsellino Antonino</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>16:00-20:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -7213,54 +7213,54 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>AUTO_16:00-20:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -7270,54 +7270,54 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16:30-20:30</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -7327,54 +7327,54 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>AUTO_16:30-20:30_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -7384,54 +7384,54 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -7441,54 +7441,54 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -7498,7 +7498,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
@@ -8985,10 +8985,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="68">
@@ -9321,10 +9321,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -10938,10 +10938,10 @@
         <v>7</v>
       </c>
       <c r="D160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -10959,10 +10959,10 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="162">
@@ -10980,10 +10980,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="163">
@@ -11274,10 +11274,10 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="177">
@@ -11295,10 +11295,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -11316,10 +11316,10 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -12954,10 +12954,10 @@
         <v>7</v>
       </c>
       <c r="D256" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E256" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="257">
@@ -13290,10 +13290,10 @@
         <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E272" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -14865,10 +14865,10 @@
         <v>7</v>
       </c>
       <c r="D347" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -14886,10 +14886,10 @@
         <v>5</v>
       </c>
       <c r="D348" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="349">
@@ -14907,10 +14907,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E349" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="350">
@@ -14928,10 +14928,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E350" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="351">
@@ -14991,10 +14991,10 @@
         <v>8</v>
       </c>
       <c r="D353" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E353" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="354">
@@ -15012,10 +15012,10 @@
         <v>3</v>
       </c>
       <c r="D354" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E354" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="355">
@@ -15033,10 +15033,10 @@
         <v>5</v>
       </c>
       <c r="D355" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E355" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="356">
@@ -15054,10 +15054,10 @@
         <v>2</v>
       </c>
       <c r="D356" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E356" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="357">
@@ -15075,10 +15075,10 @@
         <v>2</v>
       </c>
       <c r="D357" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E357" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="358">
@@ -15096,10 +15096,10 @@
         <v>3</v>
       </c>
       <c r="D358" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E358" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="359">
@@ -15117,10 +15117,10 @@
         <v>2</v>
       </c>
       <c r="D359" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E359" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="360">
@@ -15138,10 +15138,10 @@
         <v>3</v>
       </c>
       <c r="D360" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E360" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="361">
@@ -15159,10 +15159,10 @@
         <v>3</v>
       </c>
       <c r="D361" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E361" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="362">
@@ -15180,10 +15180,10 @@
         <v>3</v>
       </c>
       <c r="D362" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E362" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="363">
@@ -15285,10 +15285,10 @@
         <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E367" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="368">
@@ -15306,10 +15306,10 @@
         <v>1</v>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E368" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="369">
@@ -16944,10 +16944,10 @@
         <v>8</v>
       </c>
       <c r="D446" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E446" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="447">
@@ -16965,10 +16965,10 @@
         <v>6</v>
       </c>
       <c r="D447" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E447" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="448">
@@ -17280,10 +17280,10 @@
         <v>1</v>
       </c>
       <c r="D462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -17301,10 +17301,10 @@
         <v>1</v>
       </c>
       <c r="D463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -18834,10 +18834,10 @@
         <v>5</v>
       </c>
       <c r="D536" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E536" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="537">
@@ -18855,10 +18855,10 @@
         <v>5</v>
       </c>
       <c r="D537" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E537" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="538">
@@ -18918,10 +18918,10 @@
         <v>7</v>
       </c>
       <c r="D540" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E540" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
@@ -18939,10 +18939,10 @@
         <v>7</v>
       </c>
       <c r="D541" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E541" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
@@ -18960,10 +18960,10 @@
         <v>7</v>
       </c>
       <c r="D542" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E542" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543">
@@ -18981,10 +18981,10 @@
         <v>7</v>
       </c>
       <c r="D543" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E543" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
@@ -19002,10 +19002,10 @@
         <v>5</v>
       </c>
       <c r="D544" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E544" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="545">
@@ -19023,10 +19023,10 @@
         <v>5</v>
       </c>
       <c r="D545" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E545" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="546">
@@ -19044,10 +19044,10 @@
         <v>5</v>
       </c>
       <c r="D546" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E546" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="547">
@@ -19065,10 +19065,10 @@
         <v>5</v>
       </c>
       <c r="D547" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E547" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="548">
@@ -19086,10 +19086,10 @@
         <v>5</v>
       </c>
       <c r="D548" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E548" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="549">
@@ -19107,10 +19107,10 @@
         <v>5</v>
       </c>
       <c r="D549" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E549" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="550">
@@ -19128,10 +19128,10 @@
         <v>5</v>
       </c>
       <c r="D550" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E550" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="551">
@@ -19149,10 +19149,10 @@
         <v>5</v>
       </c>
       <c r="D551" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E551" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="552">
@@ -19170,10 +19170,10 @@
         <v>0</v>
       </c>
       <c r="D552" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -19191,10 +19191,10 @@
         <v>0</v>
       </c>
       <c r="D553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E553" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -19212,10 +19212,10 @@
         <v>0</v>
       </c>
       <c r="D554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -19233,10 +19233,10 @@
         <v>0</v>
       </c>
       <c r="D555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E555" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -21581,7 +21581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21683,6 +21683,24 @@
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Minuti preferiti bassi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quota minuti preferiti 43.0%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Verificare possibile ri-distribuzione turni</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/newcmb46.xlsx
+++ b/newcmb46.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:30-14:30</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1603,32 +1603,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Riposo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10:45-14:45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>10:15-14:15</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10:45-14:45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>10:15-14:15</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>10:15-14:15</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>10:15-14:15</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09:45-13:45</t>
+          <t>Riposo</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Riposo</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1862,47 +1862,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sole Valentina</t>
+          <t>Petta Vanessa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:45-13:45</t>
+          <t>10:15-14:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -1912,54 +1912,54 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>AUTO_09:45-13:45_240</t>
+          <t>AUTO_10:15-14:15_240</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Petta Vanessa</t>
+          <t>D'acquisto Rosa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -1969,54 +1969,54 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D'acquisto Rosa</t>
+          <t>Cannella Davide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:00-14:00</t>
+          <t>09:45-13:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -2026,54 +2026,54 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>AUTO_10:00-14:00_240</t>
+          <t>AUTO_09:45-13:45_240</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D'acquisto Armida</t>
+          <t>Sole Valentina</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:30-14:30</t>
+          <t>09:45-13:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -2083,54 +2083,54 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>AUTO_10:30-14:30_240</t>
+          <t>AUTO_09:45-13:45_240</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cannella Davide</t>
+          <t>Petta Vanessa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:45-13:45</t>
+          <t>10:15-14:15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -2140,54 +2140,54 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AUTO_09:45-13:45_240</t>
+          <t>AUTO_10:15-14:15_240</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Albanese Carmelino</t>
+          <t>D'acquisto Rosa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -2197,54 +2197,54 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sole Valentina</t>
+          <t>D'acquisto Armida</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:45-13:45</t>
+          <t>10:30-14:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -2254,54 +2254,54 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>AUTO_09:45-13:45_240</t>
+          <t>AUTO_10:30-14:30_240</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Petta Vanessa</t>
+          <t>Cannella Davide</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>09:45-13:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -2311,54 +2311,54 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_09:45-13:45_240</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D'acquisto Rosa</t>
+          <t>Albanese Carmelino</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:00-14:00</t>
+          <t>10:15-14:15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -2368,54 +2368,54 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>AUTO_10:00-14:00_240</t>
+          <t>AUTO_10:15-14:15_240</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D'acquisto Armida</t>
+          <t>Sole Valentina</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-14:30</t>
+          <t>09:45-13:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -2425,54 +2425,54 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>AUTO_10:30-14:30_240</t>
+          <t>AUTO_09:45-13:45_240</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cannella Davide</t>
+          <t>Petta Vanessa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:45-13:45</t>
+          <t>10:15-14:15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -2482,54 +2482,54 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>AUTO_09:45-13:45_240</t>
+          <t>AUTO_10:15-14:15_240</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Albanese Carmelino</t>
+          <t>D'acquisto Rosa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -2539,54 +2539,54 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sole Valentina</t>
+          <t>D'acquisto Armida</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:45-13:45</t>
+          <t>10:30-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -2596,54 +2596,54 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>AUTO_09:45-13:45_240</t>
+          <t>AUTO_10:30-14:30_240</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Petta Vanessa</t>
+          <t>Albanese Carmelino</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>10:45-14:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -2653,54 +2653,54 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_10:45-14:45_240</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D'acquisto Rosa</t>
+          <t>Cannella Davide</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:00-14:00</t>
+          <t>11:00-15:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -2710,54 +2710,54 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>AUTO_10:00-14:00_240</t>
+          <t>AUTO_11:00-15:00_240</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D'acquisto Armida</t>
+          <t>Sole Valentina</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-14:30</t>
+          <t>10:45-14:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -2767,54 +2767,54 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>AUTO_10:30-14:30_240</t>
+          <t>AUTO_10:45-14:45_240</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cannella Davide</t>
+          <t>Petta Vanessa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>10:45-14:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -2824,54 +2824,54 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_10:45-14:45_240</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Albanese Carmelino</t>
+          <t>D'acquisto Rosa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:45-14:45</t>
+          <t>10:15-14:15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -2881,54 +2881,54 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>AUTO_10:45-14:45_240</t>
+          <t>AUTO_10:15-14:15_240</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cannella Davide</t>
+          <t>D'acquisto Armida</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11:00-15:00</t>
+          <t>10:30-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -2938,54 +2938,54 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>AUTO_11:00-15:00_240</t>
+          <t>AUTO_10:30-14:30_240</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sole Valentina</t>
+          <t>Albanese Carmelino</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10:45-14:45</t>
+          <t>11:00-15:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -2995,29 +2995,29 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>AUTO_10:45-14:45_240</t>
+          <t>AUTO_11:00-15:00_240</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Petta Vanessa</t>
+          <t>Albanese Carmelino</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3059,47 +3059,47 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D'acquisto Rosa</t>
+          <t>Sole Valentina</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>11:00-15:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -3109,54 +3109,54 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_11:00-15:00_240</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D'acquisto Armida</t>
+          <t>Renna Barbara</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-14:30</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -3166,54 +3166,54 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>AUTO_10:30-14:30_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Albanese Carmelino</t>
+          <t>Mancuso Vito</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11:00-15:00</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -3223,54 +3223,54 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>AUTO_11:00-15:00_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cf13</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Albanese Carmelino</t>
+          <t>Lo Casto Anna</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:45-14:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -3280,54 +3280,54 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>AUTO_10:45-14:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cf8</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sole Valentina</t>
+          <t>D'acquisto Armida</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11:00-15:00</t>
+          <t>10:45-14:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -3337,54 +3337,54 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>AUTO_11:00-15:00_240</t>
+          <t>AUTO_10:45-14:45_240</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cf6</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Petta Vanessa</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -3394,24 +3394,24 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cf36</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>D'acquisto Rosa</t>
+          <t>Cannella Davide</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3421,27 +3421,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:15-14:15</t>
+          <t>10:45-14:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -3451,24 +3451,24 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>AUTO_10:15-14:15_240</t>
+          <t>AUTO_10:45-14:45_240</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Renna Barbara</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3515,47 +3515,47 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mancuso Vito</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -3565,54 +3565,54 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lo Casto Anna</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>15:30-19:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -3622,54 +3622,54 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_15:30-19:30_240</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cf34</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D'acquisto Armida</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:45-14:45</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -3679,54 +3679,54 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>AUTO_10:45-14:45_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>Inserra Maria Rita</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -3736,54 +3736,54 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cf23</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cannella Davide</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:45-14:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -3793,54 +3793,54 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>AUTO_10:45-14:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -3850,29 +3850,29 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Ferranti Margherita</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3914,47 +3914,47 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Mancuso Vito</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-19:30</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -3964,54 +3964,54 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>AUTO_15:30-19:30_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Renna Barbara</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -4021,29 +4021,29 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Inserra Maria Rita</t>
+          <t>Lo Casto Anna</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4085,22 +4085,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4142,22 +4142,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4199,22 +4199,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ferranti Margherita</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4256,22 +4256,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mancuso Vito</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4313,22 +4313,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Renna Barbara</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4370,47 +4370,47 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lo Casto Anna</t>
+          <t>Inserra Maria Rita</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -4420,24 +4420,24 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4484,17 +4484,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4541,17 +4541,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Ferranti Margherita</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4598,47 +4598,47 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -4648,29 +4648,29 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Renna Barbara</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4712,47 +4712,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Inserra Maria Rita</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -4762,29 +4762,29 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Lo Casto Anna</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4826,47 +4826,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -4876,29 +4876,29 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ferranti Margherita</t>
+          <t>Mancuso Vito</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4940,47 +4940,47 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -4990,54 +4990,54 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Renna Barbara</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -5047,54 +5047,54 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -5104,54 +5104,54 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf44</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lo Casto Anna</t>
+          <t>Imparato Emanuele</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -5161,54 +5161,54 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:45-19:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -5218,29 +5218,29 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:45-19:45_240</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mancuso Vito</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5282,47 +5282,47 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>15:45-19:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -5332,54 +5332,54 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_15:45-19:45_240</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Inserra Maria Rita</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -5389,54 +5389,54 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -5446,54 +5446,54 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cf44</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Imparato Emanuele</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -5503,54 +5503,54 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Ferranti Margherita</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:45-19:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -5560,54 +5560,54 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>AUTO_15:45-19:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Renna Barbara</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -5617,54 +5617,54 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Mancuso Vito</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:45-19:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -5674,54 +5674,54 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>AUTO_15:45-19:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Inserra Maria Rita</t>
+          <t>Lo Casto Anna</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -5731,54 +5731,54 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -5788,54 +5788,54 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -5845,29 +5845,29 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ferranti Margherita</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5909,22 +5909,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Renna Barbara</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5966,22 +5966,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mancuso Vito</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6023,47 +6023,47 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lo Casto Anna</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -6073,29 +6073,29 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6137,47 +6137,47 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>Inserra Maria Rita</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -6187,54 +6187,54 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>Ferranti Margherita</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -6244,54 +6244,54 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf53</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Renna Barbara</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>16:30-20:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -6301,24 +6301,24 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_16:30-20:30_240</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf52</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Mancuso Vito</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6328,27 +6328,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -6358,54 +6358,54 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf49</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Lo Casto Anna</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -6415,54 +6415,54 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Ferranti Margherita</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -6472,7 +6472,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
@@ -6494,32 +6494,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:30-20:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -6529,24 +6529,24 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_16:30-20:30_240</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ferranti Margherita</t>
+          <t>Borsellino Antonino</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6556,27 +6556,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -6586,54 +6586,54 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_16:00-20:00_240</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cf53</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Renna Barbara</t>
+          <t>Borsellino Antonino</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>16:30-20:30</t>
+          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -6643,54 +6643,54 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>AUTO_16:30-20:30_240</t>
+          <t>AUTO_16:00-20:00_240</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cf52</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mancuso Vito</t>
+          <t>Borsellino Antonino</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -6700,54 +6700,54 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_16:00-20:00_240</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cf49</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lo Casto Anna</t>
+          <t>Borsellino Antonino</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sabato</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -6757,54 +6757,54 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_16:00-20:00_240</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cf2</t>
+          <t>cf14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ferranti Margherita</t>
+          <t>Borsellino Antonino</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>LunedÃ¬</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>16:00-20:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -6814,54 +6814,54 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_16:00-20:00_240</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cf3</t>
+          <t>cf21</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Inserra Maria Rita</t>
+          <t>Burgio Rosa</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>16:30-20:30</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -6871,54 +6871,54 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>AUTO_16:30-20:30_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf26</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Borsellino Antonino</t>
+          <t>Cipolla Giuseppe</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>16:00-20:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -6928,54 +6928,54 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>AUTO_16:00-20:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Borsellino Antonino</t>
+          <t>Consentino Dario</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>MartedÃ¬</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>16:00-20:00</t>
+          <t>16:15-20:15</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -6985,54 +6985,54 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>AUTO_16:00-20:00_240</t>
+          <t>AUTO_16:15-20:15_240</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf38</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Borsellino Antonino</t>
+          <t>Federico Filippo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>16:00-20:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -7042,54 +7042,54 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>AUTO_16:00-20:00_240</t>
+          <t>AUTO_15:00-19:00_240</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf40</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Borsellino Antonino</t>
+          <t>Greco Loredana</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>MercoledÃ¬</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>16:00-20:00</t>
+          <t>16:45-20:45</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -7099,54 +7099,54 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>AUTO_16:00-20:00_240</t>
+          <t>AUTO_16:45-20:45_240</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cf14</t>
+          <t>cf42</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Borsellino Antonino</t>
+          <t>Gullo Patrizia</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LunedÃ¬</t>
+          <t>GiovedÃ¬</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>16:00-20:00</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -7156,54 +7156,54 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>AUTO_16:00-20:00_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cf21</t>
+          <t>cf47</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Burgio Rosa</t>
+          <t>Librino Rosa Maria</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>VenerdÃ¬</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>15:15-19:15</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -7213,24 +7213,24 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_15:15-19:15_240</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cf26</t>
+          <t>cf6</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cipolla Giuseppe</t>
+          <t>Petta Vanessa</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -7240,27 +7240,27 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -7270,54 +7270,54 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cf30</t>
+          <t>cf8</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Consentino Dario</t>
+          <t>Sole Valentina</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MartedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16:15-20:15</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -7327,24 +7327,24 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>AUTO_16:15-20:15_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cf38</t>
+          <t>cf13</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Federico Filippo</t>
+          <t>Albanese Carmelino</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7354,27 +7354,27 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -7384,54 +7384,54 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>AUTO_15:00-19:00_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cf40</t>
+          <t>cf23</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Greco Loredana</t>
+          <t>Cannella Davide</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MercoledÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>16:45-20:45</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -7441,54 +7441,54 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>AUTO_16:45-20:45_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>cf42</t>
+          <t>cf34</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Gullo Patrizia</t>
+          <t>D'acquisto Armida</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>GiovedÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -7498,54 +7498,54 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cf47</t>
+          <t>cf36</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Librino Rosa Maria</t>
+          <t>D'acquisto Rosa</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VenerdÃ¬</t>
+          <t>Sabato</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>15:15-19:15</t>
+          <t>09:00-13:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -7555,7 +7555,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>AUTO_15:15-19:15_240</t>
+          <t>AUTO_09:00-13:00_240</t>
         </is>
       </c>
     </row>
@@ -8460,10 +8460,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -8481,10 +8481,10 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8502,10 +8502,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -8523,10 +8523,10 @@
         <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -8544,10 +8544,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -8565,10 +8565,10 @@
         <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -8586,10 +8586,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -8607,10 +8607,10 @@
         <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -8628,10 +8628,10 @@
         <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -8649,10 +8649,10 @@
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -8670,10 +8670,10 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -8691,10 +8691,10 @@
         <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -8712,10 +8712,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -8733,10 +8733,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -8754,10 +8754,10 @@
         <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -8775,10 +8775,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -10455,10 +10455,10 @@
         <v>7</v>
       </c>
       <c r="D137" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" t="n">
         <v>4</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -10476,10 +10476,10 @@
         <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -10497,10 +10497,10 @@
         <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -10518,10 +10518,10 @@
         <v>10</v>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="D141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -10560,10 +10560,10 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -10581,10 +10581,10 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -10602,10 +10602,10 @@
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -10623,10 +10623,10 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -10644,10 +10644,10 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -10665,10 +10665,10 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -10686,10 +10686,10 @@
         <v>13</v>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -10707,10 +10707,10 @@
         <v>14</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
@@ -10728,10 +10728,10 @@
         <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -10749,10 +10749,10 @@
         <v>13</v>
       </c>
       <c r="D151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
@@ -10770,10 +10770,10 @@
         <v>7</v>
       </c>
       <c r="D152" t="n">
+        <v>3</v>
+      </c>
+      <c r="E152" t="n">
         <v>4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -14445,10 +14445,10 @@
         <v>7</v>
       </c>
       <c r="D327" t="n">
+        <v>3</v>
+      </c>
+      <c r="E327" t="n">
         <v>4</v>
-      </c>
-      <c r="E327" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -14466,10 +14466,10 @@
         <v>4</v>
       </c>
       <c r="D328" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -14487,10 +14487,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E329" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -14508,10 +14508,10 @@
         <v>10</v>
       </c>
       <c r="D330" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331">
@@ -14529,10 +14529,10 @@
         <v>9</v>
       </c>
       <c r="D331" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -14550,10 +14550,10 @@
         <v>8</v>
       </c>
       <c r="D332" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -14571,10 +14571,10 @@
         <v>9</v>
       </c>
       <c r="D333" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -14592,10 +14592,10 @@
         <v>8</v>
       </c>
       <c r="D334" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -14613,10 +14613,10 @@
         <v>8</v>
       </c>
       <c r="D335" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -14634,10 +14634,10 @@
         <v>8</v>
       </c>
       <c r="D336" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -14655,10 +14655,10 @@
         <v>8</v>
       </c>
       <c r="D337" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -14676,10 +14676,10 @@
         <v>14</v>
       </c>
       <c r="D338" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E338" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339">
@@ -14697,10 +14697,10 @@
         <v>14</v>
       </c>
       <c r="D339" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E339" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340">
@@ -14718,10 +14718,10 @@
         <v>14</v>
       </c>
       <c r="D340" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E340" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341">
@@ -14739,10 +14739,10 @@
         <v>13</v>
       </c>
       <c r="D341" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E341" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342">
@@ -14760,10 +14760,10 @@
         <v>7</v>
       </c>
       <c r="D342" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -16398,10 +16398,10 @@
         <v>3</v>
       </c>
       <c r="D420" t="n">
+        <v>1</v>
+      </c>
+      <c r="E420" t="n">
         <v>2</v>
-      </c>
-      <c r="E420" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -16419,10 +16419,10 @@
         <v>7</v>
       </c>
       <c r="D421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E421" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422">
@@ -16440,10 +16440,10 @@
         <v>7</v>
       </c>
       <c r="D422" t="n">
+        <v>3</v>
+      </c>
+      <c r="E422" t="n">
         <v>4</v>
-      </c>
-      <c r="E422" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -16461,10 +16461,10 @@
         <v>4</v>
       </c>
       <c r="D423" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E423" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -16482,10 +16482,10 @@
         <v>5</v>
       </c>
       <c r="D424" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -16503,10 +16503,10 @@
         <v>10</v>
       </c>
       <c r="D425" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E425" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426">
@@ -16524,10 +16524,10 @@
         <v>11</v>
       </c>
       <c r="D426" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E426" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427">
@@ -16545,10 +16545,10 @@
         <v>8</v>
       </c>
       <c r="D427" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E427" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -16566,10 +16566,10 @@
         <v>8</v>
       </c>
       <c r="D428" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -16587,10 +16587,10 @@
         <v>8</v>
       </c>
       <c r="D429" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -16608,10 +16608,10 @@
         <v>8</v>
       </c>
       <c r="D430" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -16629,10 +16629,10 @@
         <v>8</v>
       </c>
       <c r="D431" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E431" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -16650,10 +16650,10 @@
         <v>8</v>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -16671,10 +16671,10 @@
         <v>13</v>
       </c>
       <c r="D433" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E433" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434">
@@ -16692,10 +16692,10 @@
         <v>14</v>
       </c>
       <c r="D434" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E434" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435">
@@ -16713,10 +16713,10 @@
         <v>15</v>
       </c>
       <c r="D435" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E435" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436">
@@ -16734,10 +16734,10 @@
         <v>13</v>
       </c>
       <c r="D436" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E436" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="437">
@@ -16755,10 +16755,10 @@
         <v>7</v>
       </c>
       <c r="D437" t="n">
+        <v>3</v>
+      </c>
+      <c r="E437" t="n">
         <v>4</v>
-      </c>
-      <c r="E437" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -16776,10 +16776,10 @@
         <v>7</v>
       </c>
       <c r="D438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E438" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439">
@@ -18330,10 +18330,10 @@
         <v>0</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="513">
@@ -18351,10 +18351,10 @@
         <v>0</v>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="514">
@@ -18372,10 +18372,10 @@
         <v>0</v>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="515">
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="516">
@@ -18414,10 +18414,10 @@
         <v>5</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E516" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517">
@@ -18435,10 +18435,10 @@
         <v>5</v>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E517" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518">
@@ -18456,10 +18456,10 @@
         <v>5</v>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E518" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519">
@@ -18477,10 +18477,10 @@
         <v>5</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E519" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520">
@@ -18498,10 +18498,10 @@
         <v>5</v>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E520" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521">
@@ -18519,10 +18519,10 @@
         <v>5</v>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E521" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522">
@@ -18540,10 +18540,10 @@
         <v>5</v>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E522" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523">
@@ -18561,10 +18561,10 @@
         <v>5</v>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E523" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
@@ -18582,10 +18582,10 @@
         <v>7</v>
       </c>
       <c r="D524" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E524" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -18603,10 +18603,10 @@
         <v>7</v>
       </c>
       <c r="D525" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E525" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -18624,10 +18624,10 @@
         <v>7</v>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E526" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -18645,10 +18645,10 @@
         <v>7</v>
       </c>
       <c r="D527" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E527" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -21660,7 +21660,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Slot Mer 14:45, Slot Sab 10:00, Slot Sab 10:15, Slot Sab 10:30, Slot Sab 10:45, Slot Sab 11:00, Slot Sab 11:15, Slot Sab 11:30, Slot Sab 11:45, Slot Sab 14:00, Slot Sab 14:15, Slot Sab 14:30, Slot Sab 14:45</t>
+          <t>Slot Mer 14:45, Slot Sab 14:00, Slot Sab 14:15, Slot Sab 14:30, Slot Sab 14:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -21678,7 +21678,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Slot Sab 12:00, Slot Sab 12:15, Slot Sab 12:30, Slot Sab 12:45, Slot Sab 13:00, Slot Sab 13:15, Slot Sab 13:30, Slot Sab 13:45</t>
+          <t>Slot Sab 13:00, Slot Sab 13:15, Slot Sab 13:30, Slot Sab 13:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quota minuti preferiti 43.0%</t>
+          <t>Quota minuti preferiti 38.0%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>

--- a/newcmb46.xlsx
+++ b/newcmb46.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -7240,27 +7240,27 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -7270,7 +7270,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
@@ -7297,27 +7297,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -7327,7 +7327,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
@@ -7354,27 +7354,27 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -7384,7 +7384,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
@@ -7411,27 +7411,27 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -7441,7 +7441,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
@@ -7468,27 +7468,27 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -7498,7 +7498,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
@@ -7525,27 +7525,27 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -7555,7 +7555,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>AUTO_09:00-13:00_240</t>
+          <t>AUTO_10:00-14:00_240</t>
         </is>
       </c>
     </row>
@@ -18330,10 +18330,10 @@
         <v>0</v>
       </c>
       <c r="D512" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -18351,10 +18351,10 @@
         <v>0</v>
       </c>
       <c r="D513" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E513" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -18372,10 +18372,10 @@
         <v>0</v>
       </c>
       <c r="D514" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="D515" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E515" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -18666,10 +18666,10 @@
         <v>7</v>
       </c>
       <c r="D528" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E528" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -18687,10 +18687,10 @@
         <v>7</v>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E529" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -18708,10 +18708,10 @@
         <v>7</v>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E530" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -18729,10 +18729,10 @@
         <v>7</v>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E531" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -21581,7 +21581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21668,34 +21668,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vincolo non rispettato</t>
+          <t>Minuti preferiti bassi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Domanda 7.0 ma nessun dipendente disponibile SENZA violare riposi obbligatori</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Slot Sab 13:00, Slot Sab 13:15, Slot Sab 13:30, Slot Sab 13:45</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Minuti preferiti bassi</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>Quota minuti preferiti 38.0%</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Verificare possibile ri-distribuzione turni</t>
         </is>
